--- a/Uber/6_Resig/Contacts.xlsx
+++ b/Uber/6_Resig/Contacts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
   <si>
     <t>Ajay Gopireddy &lt;agopireddy@elevate.com&gt;</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t xml:space="preserve">mike klink, gopal, kevin, ken rees, yolanda, gerber, veronica, kathleen, tina, john tyler, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beth, Mike, </t>
   </si>
 </sst>
 </file>
@@ -666,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CZ107"/>
+  <dimension ref="A1:CZ109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,6 +1843,11 @@
         <v>105</v>
       </c>
     </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Uber/6_Resig/Contacts.xlsx
+++ b/Uber/6_Resig/Contacts.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$B$117</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="117">
   <si>
     <t>Ajay Gopireddy &lt;agopireddy@elevate.com&gt;</t>
   </si>
@@ -341,10 +344,40 @@
     <t>Work With</t>
   </si>
   <si>
-    <t xml:space="preserve">mike klink, gopal, kevin, ken rees, yolanda, gerber, veronica, kathleen, tina, john tyler, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beth, Mike, </t>
+    <t>Mike Klinkenberg (mklinkenberg@elevate.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gopal Ravi &lt;gravi@elevate.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin Navarre (KNavarre@elevate.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yolanda Offord &lt;yofford@elevate.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paul Gerber (pgerber@elevate.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Veronica Fletcher (vfletcher@elevate.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kathleen Caress Vanderkolk (kvanderkolk@elevate.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tina Tuccelli (ttuccelli@elevate.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John Tyler &lt;jtyler@elevate.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leslie Rosser (lrosser@elevate.com)</t>
+  </si>
+  <si>
+    <t>Elizabeth Fontenot (EFontenot@elevate.com)</t>
+  </si>
+  <si>
+    <t>Contact</t>
   </si>
 </sst>
 </file>
@@ -669,10 +702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CZ109"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:CZ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,11 +1132,14 @@
       </c>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
       <c r="B2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:104" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:104" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1200,12 +1237,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:104" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1218,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1231,17 +1268,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1286,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1320,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1333,12 +1370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1351,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1388,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1505,17 +1542,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -1528,12 +1565,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -1546,22 +1583,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -1606,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -1619,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -1656,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -1693,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -1730,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -1743,12 +1780,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -1833,22 +1870,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>105</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:B117">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>